--- a/biomes.xlsx
+++ b/biomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\futura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F877A-ECFA-4FB1-B2AA-B6FFA49068C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7047D9F-6489-4143-BD24-E8B79793625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{92D91292-9A78-487B-A04F-95D5D3E46739}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15285" xr2:uid="{92D91292-9A78-487B-A04F-95D5D3E46739}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,26 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>min-low</t>
-  </si>
-  <si>
-    <t>low-norm</t>
-  </si>
-  <si>
-    <t>norm-high</t>
-  </si>
-  <si>
-    <t>high-max</t>
-  </si>
-  <si>
-    <t>hight-max</t>
-  </si>
-  <si>
     <t>T=tundra</t>
   </si>
   <si>
@@ -79,21 +64,6 @@
     <t>G=grass</t>
   </si>
   <si>
-    <t>S=swamp</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>A=savanna</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>R=tropics</t>
   </si>
   <si>
@@ -118,7 +88,19 @@
     <t>O</t>
   </si>
   <si>
-    <t>GS</t>
+    <t>min</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -157,10 +139,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,6 +150,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF20A894"/>
+      <color rgb="FFD5D7B7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -326,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,349 +464,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E61DEB6-44CE-4EDC-80C8-0A4020A763E4}">
-  <dimension ref="J5:U24"/>
+  <dimension ref="J5:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="1" t="s">
+    </row>
+    <row r="7" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="10:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="U5" t="s">
+    </row>
+    <row r="9" spans="10:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="L6" s="2" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="10:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s">
         <v>12</v>
       </c>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
         <v>5</v>
       </c>
-      <c r="U6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="L7" s="2"/>
-      <c r="M7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" t="s">
         <v>15</v>
       </c>
-      <c r="U7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="10:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L8" s="2"/>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="10:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="10:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="10:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="2"/>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="U12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="L13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="L14" s="2"/>
-      <c r="M14" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="10:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L15" s="2"/>
-      <c r="M15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="10:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="2"/>
-      <c r="M16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="L20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="L21" s="2"/>
-      <c r="M21" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L22" s="2"/>
-      <c r="M22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="2"/>
-      <c r="M23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="M24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="L22:L25"/>
     <mergeCell ref="M5:P5"/>
     <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/biomes.xlsx
+++ b/biomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\futura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7047D9F-6489-4143-BD24-E8B79793625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A9D1F-9FCA-4065-92BB-BA0DD22BF09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15285" xr2:uid="{92D91292-9A78-487B-A04F-95D5D3E46739}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>T</t>
   </si>
@@ -49,12 +49,6 @@
     <t>LOWL</t>
   </si>
   <si>
-    <t>HILLS</t>
-  </si>
-  <si>
-    <t>MNT</t>
-  </si>
-  <si>
     <t>Hum</t>
   </si>
   <si>
@@ -74,18 +68,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>I = ice rocks</t>
-  </si>
-  <si>
-    <t>O = rocks</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>min</t>
@@ -464,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E61DEB6-44CE-4EDC-80C8-0A4020A763E4}">
-  <dimension ref="J5:T27"/>
+  <dimension ref="J5:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,42 +465,39 @@
         <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="T5" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L7" s="1"/>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
@@ -533,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="10:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L8" s="1"/>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -554,13 +533,13 @@
         <v>2</v>
       </c>
       <c r="T8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="10:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L9" s="1"/>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
         <v>2</v>
@@ -575,247 +554,66 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="10:20" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="L14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" t="s">
-        <v>21</v>
-      </c>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="10:20" x14ac:dyDescent="0.25">
       <c r="L15" s="1"/>
-      <c r="M15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="10:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L16" s="1"/>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="10:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="12:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
-      <c r="M23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="10:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="12:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="10:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="12:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L25" s="1"/>
-      <c r="M25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" t="s">
-        <v>16</v>
-      </c>
-      <c r="P25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
